--- a/相关/120急救中心_数据填报表格.xlsx
+++ b/相关/120急救中心_数据填报表格.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>目录数据填报表样（填报数据时此区域填写单位名）</t>
   </si>
@@ -266,6 +266,15 @@
     <t>当其中一个总数有变化时，做字段的数据更新</t>
   </si>
   <si>
+    <t>是否已读</t>
+  </si>
+  <si>
+    <t>readflag</t>
+  </si>
+  <si>
+    <t>注：已存在当天日期则更新，否则插入</t>
+  </si>
+  <si>
     <t>车辆实时位置和状态</t>
   </si>
   <si>
@@ -427,7 +436,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,10 +491,119 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,30 +615,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,105 +661,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -660,19 +688,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,163 +856,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,10 +936,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -932,6 +958,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -943,6 +978,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,41 +1015,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,10 +1037,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,137 +1049,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1212,8 +1240,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1567,10 +1609,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1739,23 +1781,23 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="6"/>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="6"/>
@@ -1859,41 +1901,43 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="21"/>
+      <c r="B16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="23"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
         <v>50</v>
       </c>
@@ -1903,7 +1947,9 @@
       <c r="E18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G18" s="21" t="s">
         <v>16</v>
       </c>
@@ -1913,10 +1959,10 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>32</v>
@@ -1931,17 +1977,15 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="F20" s="6"/>
       <c r="G20" s="21" t="s">
         <v>16</v>
       </c>
@@ -1957,10 +2001,10 @@
         <v>58</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>16</v>
@@ -1971,15 +2015,17 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="G22" s="21" t="s">
         <v>16</v>
       </c>
@@ -1989,13 +2035,13 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="21" t="s">
@@ -2006,42 +2052,40 @@
     <row r="24" spans="1:8">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="C26" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>51</v>
@@ -2049,7 +2093,9 @@
       <c r="E26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G26" s="21" t="s">
         <v>16</v>
       </c>
@@ -2059,10 +2105,10 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>32</v>
@@ -2077,17 +2123,15 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F28" s="6"/>
       <c r="G28" s="21" t="s">
         <v>16</v>
       </c>
@@ -2103,7 +2147,7 @@
         <v>70</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>71</v>
@@ -2123,7 +2167,7 @@
         <v>73</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>74</v>
@@ -2137,15 +2181,17 @@
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="G31" s="21" t="s">
         <v>16</v>
       </c>
@@ -2155,13 +2201,13 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="21" t="s">
@@ -2170,133 +2216,141 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="6" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="6" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="6" t="s">
-        <v>6</v>
+      <c r="E35" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="13"/>
       <c r="H35" s="14"/>
     </row>
-    <row r="36" ht="16.5" customHeight="1" spans="1:8">
+    <row r="36" spans="1:8">
       <c r="A36" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1" spans="1:8">
+      <c r="A37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="15"/>
+      <c r="B37" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="15"/>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B40" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C40" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D40" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E40" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19" t="s">
+      <c r="F40" s="19"/>
+      <c r="G40" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H40" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="21"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8">
@@ -2309,70 +2363,80 @@
       <c r="G42" s="21"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A43" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
+    <row r="43" spans="1:8">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A44" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-    </row>
-    <row r="48" ht="57.75" customHeight="1" spans="1:8">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+    </row>
+    <row r="49" ht="57.75" customHeight="1" spans="1:8">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:D3"/>
@@ -2382,21 +2446,22 @@
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="A43:H48"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="A44:H49"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B37">
       <formula1>"推送数据,推送数据文件"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:H7 G9 G10 G13 G14 G15 G16 G17 G18 G21 G22 G23 G24 G25 G26 G29 G30 G31 G32 B38:H38 G11:G12 G19:G20 G27:G28 G40:G42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:H7 G9 G10 G13 G14 G15 G16 G17 G18 G19 G22 G23 G24 G25 G26 G27 G30 G31 G32 G33 B39:H39 G11:G12 G20:G21 G28:G29 G41:G43">
       <formula1>"主动共享,协议共享,不予共享"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2424,20 +2489,20 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:3">
@@ -2549,7 +2614,7 @@
   <sheetData>
     <row r="1" ht="22.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2557,16 +2622,16 @@
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:4">
